--- a/va_facility_data_2025-02-20/Clement J. Zablocki Veterans' Administration Medical Center - Facility Data.xlsx"; filename*=UTF-8''Clement%20J.%20Zablocki%20Veterans%27%20Administration%20Medical%20Center%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Clement J. Zablocki Veterans' Administration Medical Center - Facility Data.xlsx"; filename*=UTF-8''Clement%20J.%20Zablocki%20Veterans%27%20Administration%20Medical%20Center%20-%20Facility%20Data.xlsx
@@ -2,12 +2,12 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Effective Care" sheetId="1" r:id="R316d0a8a4991476aadad7d69185b6a98"/>
-    <x:sheet name="Safe Care" sheetId="2" r:id="Rf804005f4c1f4eaa8b5fd8034f33aa70"/>
-    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="R7f97a007c3ec44e0b51d15e36de99166"/>
-    <x:sheet name="Wait Times" sheetId="4" r:id="Rd92ddf27d32a4d82bcf44d916f68ee6e"/>
-    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="Rdec61226228a4a50b4fdcf95fa80fae1"/>
-    <x:sheet name="Outpatient Score" sheetId="6" r:id="R9870875f82b948ac878ac3c196418aa2"/>
+    <x:sheet name="Effective Care" sheetId="1" r:id="Rc3da87e985ed49c8bd8d997b6ddcaae2"/>
+    <x:sheet name="Safe Care" sheetId="2" r:id="R57f1dbab7dc94ba280fc4dc9d9af7dbf"/>
+    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="Re648c367d89f482d87230a4ea35abe7c"/>
+    <x:sheet name="Wait Times" sheetId="4" r:id="Ree2035d69f8d4098b10084a3285a5883"/>
+    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="R2cea1995ff274269a83eaefb06dd8973"/>
+    <x:sheet name="Outpatient Score" sheetId="6" r:id="Rae0b36e2713241199158ffc6917e993f"/>
   </x:sheets>
 </x:workbook>
 </file>
